--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDeterminacionVolGNAPDF.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDeterminacionVolGNAPDF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B7384B-C553-4052-B78E-6D84114A0846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D2E3C0-2F2B-49FF-B798-A7B9C6D0C095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87F3111E-DF55-4202-AC8E-52B13E902D7B}"/>
   </bookViews>
@@ -903,161 +903,161 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1086,56 +1086,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1232649</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2632123</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>159183</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{598F1EE2-DC98-46D0-B389-1DB7D043E865}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2947149" y="16024412"/>
-          <a:ext cx="1399474" cy="999624"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>212911</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -1161,7 +1111,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1515,8 +1465,8 @@
   </sheetPr>
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="18" customHeight="1"/>
@@ -1534,44 +1484,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A1" s="133"/>
-      <c r="B1" s="134"/>
-      <c r="C1" s="143" t="s">
+      <c r="A1" s="124"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="146" t="s">
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="146"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="135"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="147" t="s">
+      <c r="A2" s="126"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="147"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="1:10" ht="33" customHeight="1">
-      <c r="A3" s="137"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
       <c r="I3" s="70" t="s">
         <v>95</v>
       </c>
@@ -1662,13 +1612,13 @@
     </row>
     <row r="11" spans="1:10" ht="15">
       <c r="A11" s="52"/>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="112" t="s">
+      <c r="D11" s="105" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="20" t="s">
@@ -1682,16 +1632,16 @@
     </row>
     <row r="12" spans="1:10" ht="60">
       <c r="A12" s="81"/>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="116"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="144" t="s">
+      <c r="F12" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="145"/>
+      <c r="G12" s="133"/>
       <c r="H12" s="15" t="s">
         <v>47</v>
       </c>
@@ -1702,18 +1652,18 @@
     </row>
     <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="81"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
       <c r="D13" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="103" t="s">
+      <c r="F13" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="104"/>
+      <c r="G13" s="103"/>
       <c r="H13" s="5" t="s">
         <v>42</v>
       </c>
@@ -1736,10 +1686,10 @@
       <c r="E14" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="105" t="s">
+      <c r="F14" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="106"/>
+      <c r="G14" s="99"/>
       <c r="H14" s="88" t="s">
         <v>74</v>
       </c>
@@ -1754,8 +1704,8 @@
       <c r="C15" s="25"/>
       <c r="D15" s="63"/>
       <c r="E15" s="88"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="149"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="101"/>
       <c r="H15" s="88"/>
       <c r="I15" s="22"/>
       <c r="J15" s="77"/>
@@ -1798,10 +1748,10 @@
     </row>
     <row r="19" spans="1:10" s="28" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="52"/>
-      <c r="B19" s="139" t="s">
+      <c r="B19" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="139"/>
+      <c r="C19" s="110"/>
       <c r="D19" s="53" t="s">
         <v>76</v>
       </c>
@@ -1820,13 +1770,13 @@
     </row>
     <row r="21" spans="1:10" ht="18" customHeight="1">
       <c r="A21" s="52"/>
-      <c r="B21" s="110" t="s">
+      <c r="B21" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="110" t="s">
+      <c r="C21" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="140" t="s">
+      <c r="D21" s="111" t="s">
         <v>33</v>
       </c>
       <c r="E21" s="20" t="s">
@@ -1840,74 +1790,74 @@
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="52"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="140" t="s">
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="111" t="s">
+      <c r="F22" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="112"/>
-      <c r="H22" s="140" t="s">
+      <c r="G22" s="105"/>
+      <c r="H22" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="140" t="s">
+      <c r="I22" s="111" t="s">
         <v>46</v>
       </c>
       <c r="J22" s="77"/>
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="52"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
       <c r="J23" s="77"/>
     </row>
     <row r="24" spans="1:10" ht="15">
       <c r="A24" s="52"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="141"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="112"/>
       <c r="J24" s="77"/>
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="52"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
       <c r="J25" s="77"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="A26" s="52"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="130"/>
       <c r="D26" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="103" t="s">
+      <c r="F26" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="G26" s="104"/>
+      <c r="G26" s="103"/>
       <c r="H26" s="5" t="s">
         <v>42</v>
       </c>
@@ -1930,10 +1880,10 @@
       <c r="E27" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="105" t="s">
+      <c r="F27" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="106"/>
+      <c r="G27" s="99"/>
       <c r="H27" s="88" t="s">
         <v>74</v>
       </c>
@@ -1948,8 +1898,8 @@
       <c r="C28" s="17"/>
       <c r="D28" s="64"/>
       <c r="E28" s="88"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="149"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="101"/>
       <c r="H28" s="88"/>
       <c r="I28" s="89"/>
       <c r="J28" s="77"/>
@@ -2070,13 +2020,13 @@
     </row>
     <row r="38" spans="1:10" ht="18" customHeight="1">
       <c r="A38" s="52"/>
-      <c r="B38" s="110" t="s">
+      <c r="B38" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="110" t="s">
+      <c r="C38" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="112" t="s">
+      <c r="D38" s="105" t="s">
         <v>33</v>
       </c>
       <c r="E38" s="20" t="s">
@@ -2090,74 +2040,74 @@
     </row>
     <row r="39" spans="1:10" ht="18" customHeight="1">
       <c r="A39" s="52"/>
-      <c r="B39" s="110"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="139" t="s">
+      <c r="B39" s="130"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="111" t="s">
+      <c r="F39" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="G39" s="112"/>
-      <c r="H39" s="139" t="s">
+      <c r="G39" s="105"/>
+      <c r="H39" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="I39" s="139" t="s">
+      <c r="I39" s="110" t="s">
         <v>29</v>
       </c>
       <c r="J39" s="77"/>
     </row>
     <row r="40" spans="1:10" ht="18" customHeight="1">
       <c r="A40" s="52"/>
-      <c r="B40" s="110"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="139"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="139"/>
-      <c r="I40" s="139"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="110"/>
       <c r="J40" s="77"/>
     </row>
     <row r="41" spans="1:10" ht="18" customHeight="1">
       <c r="A41" s="52"/>
-      <c r="B41" s="110"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="139"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="139"/>
-      <c r="I41" s="139"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="110"/>
       <c r="J41" s="77"/>
     </row>
     <row r="42" spans="1:10" ht="15">
       <c r="A42" s="52"/>
-      <c r="B42" s="110"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="139"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="139"/>
-      <c r="I42" s="139"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="110"/>
       <c r="J42" s="77"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1">
       <c r="A43" s="52"/>
-      <c r="B43" s="110"/>
-      <c r="C43" s="110"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="130"/>
       <c r="D43" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="103" t="s">
+      <c r="F43" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="104"/>
+      <c r="G43" s="103"/>
       <c r="H43" s="5" t="s">
         <v>25</v>
       </c>
@@ -2180,10 +2130,10 @@
       <c r="E44" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="F44" s="124" t="s">
+      <c r="F44" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="G44" s="125"/>
+      <c r="G44" s="146"/>
       <c r="H44" s="91" t="s">
         <v>74</v>
       </c>
@@ -2198,8 +2148,8 @@
       <c r="C45" s="17"/>
       <c r="D45" s="47"/>
       <c r="E45" s="92"/>
-      <c r="F45" s="126"/>
-      <c r="G45" s="127"/>
+      <c r="F45" s="147"/>
+      <c r="G45" s="148"/>
       <c r="H45" s="86"/>
       <c r="I45" s="86"/>
       <c r="J45" s="77"/>
@@ -2207,12 +2157,12 @@
     <row r="46" spans="1:10" ht="15">
       <c r="A46" s="52"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="123"/>
-      <c r="D46" s="123"/>
-      <c r="E46" s="123"/>
-      <c r="F46" s="123"/>
-      <c r="G46" s="123"/>
-      <c r="H46" s="123"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="144"/>
+      <c r="G46" s="144"/>
+      <c r="H46" s="144"/>
       <c r="I46" s="12"/>
       <c r="J46" s="77"/>
     </row>
@@ -2220,11 +2170,11 @@
       <c r="A47" s="52"/>
       <c r="C47" s="38"/>
       <c r="D47" s="42"/>
-      <c r="E47" s="128" t="s">
+      <c r="E47" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="128"/>
-      <c r="G47" s="128"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="116"/>
       <c r="H47" s="67" t="s">
         <v>77</v>
       </c>
@@ -2235,11 +2185,11 @@
     </row>
     <row r="48" spans="1:10" ht="18" customHeight="1">
       <c r="A48" s="52"/>
-      <c r="E48" s="128" t="s">
+      <c r="E48" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="128"/>
-      <c r="G48" s="128"/>
+      <c r="F48" s="116"/>
+      <c r="G48" s="116"/>
       <c r="H48" s="65" t="s">
         <v>78</v>
       </c>
@@ -2256,11 +2206,11 @@
     </row>
     <row r="50" spans="1:10" ht="15">
       <c r="A50" s="52"/>
-      <c r="E50" s="98" t="s">
+      <c r="E50" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="98"/>
-      <c r="G50" s="98"/>
+      <c r="F50" s="149"/>
+      <c r="G50" s="149"/>
       <c r="H50" s="54" t="s">
         <v>79</v>
       </c>
@@ -2296,87 +2246,87 @@
     </row>
     <row r="54" spans="1:10" ht="15">
       <c r="A54" s="52"/>
-      <c r="B54" s="120" t="s">
+      <c r="B54" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="120" t="s">
+      <c r="C54" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="117" t="s">
+      <c r="D54" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="118"/>
-      <c r="F54" s="118"/>
-      <c r="G54" s="118"/>
-      <c r="H54" s="119"/>
+      <c r="E54" s="139"/>
+      <c r="F54" s="139"/>
+      <c r="G54" s="139"/>
+      <c r="H54" s="140"/>
       <c r="J54" s="77"/>
     </row>
     <row r="55" spans="1:10" ht="15" customHeight="1">
       <c r="A55" s="52"/>
-      <c r="B55" s="121"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="99" t="s">
+      <c r="B55" s="142"/>
+      <c r="C55" s="142"/>
+      <c r="D55" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="99" t="s">
+      <c r="E55" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="129" t="s">
+      <c r="F55" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="G55" s="130"/>
-      <c r="H55" s="99" t="s">
+      <c r="G55" s="121"/>
+      <c r="H55" s="117" t="s">
         <v>12</v>
       </c>
       <c r="J55" s="77"/>
     </row>
     <row r="56" spans="1:10" ht="15" customHeight="1">
       <c r="A56" s="52"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="121"/>
-      <c r="D56" s="100"/>
-      <c r="E56" s="100"/>
-      <c r="F56" s="131"/>
-      <c r="G56" s="132"/>
-      <c r="H56" s="100"/>
+      <c r="B56" s="142"/>
+      <c r="C56" s="142"/>
+      <c r="D56" s="118"/>
+      <c r="E56" s="118"/>
+      <c r="F56" s="122"/>
+      <c r="G56" s="123"/>
+      <c r="H56" s="118"/>
       <c r="J56" s="77"/>
     </row>
     <row r="57" spans="1:10" ht="15" customHeight="1">
       <c r="A57" s="52"/>
-      <c r="B57" s="121"/>
-      <c r="C57" s="121"/>
-      <c r="D57" s="100"/>
-      <c r="E57" s="100"/>
-      <c r="F57" s="131"/>
-      <c r="G57" s="132"/>
-      <c r="H57" s="100"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="142"/>
+      <c r="D57" s="118"/>
+      <c r="E57" s="118"/>
+      <c r="F57" s="122"/>
+      <c r="G57" s="123"/>
+      <c r="H57" s="118"/>
       <c r="J57" s="77"/>
     </row>
     <row r="58" spans="1:10" ht="15" customHeight="1">
       <c r="A58" s="52"/>
-      <c r="B58" s="121"/>
-      <c r="C58" s="121"/>
-      <c r="D58" s="101"/>
-      <c r="E58" s="101"/>
-      <c r="F58" s="131"/>
-      <c r="G58" s="132"/>
-      <c r="H58" s="101"/>
+      <c r="B58" s="142"/>
+      <c r="C58" s="142"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="119"/>
+      <c r="F58" s="122"/>
+      <c r="G58" s="123"/>
+      <c r="H58" s="119"/>
       <c r="J58" s="77"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1">
       <c r="A59" s="52"/>
-      <c r="B59" s="122"/>
-      <c r="C59" s="122"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="143"/>
       <c r="D59" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="103" t="s">
+      <c r="F59" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="104"/>
+      <c r="G59" s="103"/>
       <c r="H59" s="5" t="s">
         <v>8</v>
       </c>
@@ -2396,10 +2346,10 @@
       <c r="E60" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="F60" s="105" t="s">
+      <c r="F60" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="G60" s="106"/>
+      <c r="G60" s="99"/>
       <c r="H60" s="55" t="s">
         <v>91</v>
       </c>
@@ -2506,13 +2456,13 @@
     <row r="68" spans="1:10" ht="15" customHeight="1">
       <c r="A68" s="52"/>
       <c r="B68" s="8"/>
-      <c r="C68" s="107" t="s">
+      <c r="C68" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="108" t="s">
+      <c r="D68" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="E68" s="109" t="s">
+      <c r="E68" s="136" t="s">
         <v>0</v>
       </c>
       <c r="F68" s="4"/>
@@ -2524,9 +2474,9 @@
     <row r="69" spans="1:10" ht="15" customHeight="1">
       <c r="A69" s="52"/>
       <c r="B69" s="8"/>
-      <c r="C69" s="107"/>
-      <c r="D69" s="108"/>
-      <c r="E69" s="109"/>
+      <c r="C69" s="134"/>
+      <c r="D69" s="135"/>
+      <c r="E69" s="136"/>
       <c r="F69" s="4"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
@@ -2630,15 +2580,15 @@
         <v>93</v>
       </c>
       <c r="D77" s="96"/>
-      <c r="E77" s="102" t="s">
+      <c r="E77" s="137" t="s">
         <v>99</v>
       </c>
-      <c r="F77" s="102"/>
+      <c r="F77" s="137"/>
       <c r="G77" s="97"/>
-      <c r="H77" s="102" t="s">
+      <c r="H77" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="I77" s="102"/>
+      <c r="I77" s="137"/>
       <c r="J77" s="77"/>
     </row>
     <row r="78" spans="1:10" ht="18" customHeight="1">
@@ -2714,19 +2664,27 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F22:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="F39:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="E47:G47"/>
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="D55:D58"/>
     <mergeCell ref="E55:E58"/>
@@ -2743,27 +2701,19 @@
     <mergeCell ref="C1:H3"/>
     <mergeCell ref="E39:E42"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="F39:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="C54:C59"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F22:G25"/>
+    <mergeCell ref="F26:G26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDeterminacionVolGNAPDF.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDeterminacionVolGNAPDF.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppV2\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D2E3C0-2F2B-49FF-B798-A7B9C6D0C095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B6E9EF-D3E9-4D65-AC16-39A80E528242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87F3111E-DF55-4202-AC8E-52B13E902D7B}"/>
   </bookViews>
@@ -16,11 +16,11 @@
     <sheet name="Boleta" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Boleta!$A$1:$J$92</definedName>
-    <definedName name="DistribucionGasNaturalAsociado">Boleta!$A$60:$H$61</definedName>
-    <definedName name="FactorAsignacionGns_Items">Boleta!$A$27:$I$28</definedName>
-    <definedName name="FactorAsignacionLiquidosGasNatural_Items">Boleta!$A$44:$I$45</definedName>
-    <definedName name="FactoresAsignacionGasCombustible_Items">Boleta!$A$14:$I$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Boleta!$A$1:$L$92</definedName>
+    <definedName name="DistribucionGasNaturalAsociado">Boleta!$A$60:$J$61</definedName>
+    <definedName name="FactorAsignacionGns_Items">Boleta!$A$27:$K$28</definedName>
+    <definedName name="FactorAsignacionLiquidosGasNatural_Items">Boleta!$A$44:$K$45</definedName>
+    <definedName name="FactoresAsignacionGasCombustible_Items">Boleta!$A$14:$K$15</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -642,7 +642,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -670,9 +670,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -682,9 +679,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -707,7 +701,6 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -761,17 +754,11 @@
     <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -896,13 +883,130 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -914,48 +1018,6 @@
     </xf>
     <xf numFmtId="168" fontId="2" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -981,47 +1043,50 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1056,8 +1121,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1463,1264 +1528,1418 @@
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="9" customWidth="1"/>
-    <col min="3" max="3" width="48.625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="26.625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="9" customWidth="1"/>
-    <col min="8" max="9" width="18.625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="4" style="8"/>
+    <col min="3" max="3" width="10.625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="22.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="26.625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="9" customWidth="1"/>
+    <col min="10" max="11" width="18.625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.625" style="8" customWidth="1"/>
+    <col min="13" max="16384" width="4" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A1" s="124"/>
-      <c r="B1" s="125"/>
-      <c r="C1" s="131" t="s">
+    <row r="1" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A1" s="112"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="149" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="114" t="s">
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="114"/>
-    </row>
-    <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="126"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="115" t="s">
+      <c r="L1" s="127"/>
+    </row>
+    <row r="2" spans="1:12" ht="32.25" customHeight="1">
+      <c r="A2" s="115"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="115"/>
-    </row>
-    <row r="3" spans="1:10" ht="33" customHeight="1">
-      <c r="A3" s="128"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="70" t="s">
+      <c r="L2" s="128"/>
+    </row>
+    <row r="3" spans="1:12" ht="33" customHeight="1">
+      <c r="A3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="L3" s="66" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="J4" s="76"/>
-    </row>
-    <row r="5" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A5" s="81"/>
+    <row r="4" spans="1:12" ht="17.25" customHeight="1">
+      <c r="A4" s="75"/>
+      <c r="L4" s="71"/>
+    </row>
+    <row r="5" spans="1:12" ht="31.5" customHeight="1">
+      <c r="A5" s="76"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="8" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="K5" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="77"/>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A6" s="81"/>
+      <c r="L5" s="72"/>
+    </row>
+    <row r="6" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A6" s="76"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="77"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="81"/>
-      <c r="B7" s="24" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="72"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="76"/>
+      <c r="B7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="77"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="A8" s="81"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="77"/>
-    </row>
-    <row r="9" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A9" s="81"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="72"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="A8" s="76"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="72"/>
+    </row>
+    <row r="9" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A9" s="76"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="77"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="34"/>
-      <c r="J10" s="77"/>
-    </row>
-    <row r="11" spans="1:10" ht="15">
-      <c r="A11" s="52"/>
-      <c r="B11" s="130" t="s">
+      <c r="H9" s="8"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="72"/>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A10" s="47"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="L10" s="72"/>
+    </row>
+    <row r="11" spans="1:12" ht="15">
+      <c r="A11" s="47"/>
+      <c r="B11" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="105" t="s">
+      <c r="D11" s="113"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="G11" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="77"/>
-    </row>
-    <row r="12" spans="1:10" ht="60">
-      <c r="A12" s="81"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="16" t="s">
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="72"/>
+    </row>
+    <row r="12" spans="1:12" ht="60">
+      <c r="A12" s="76"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="132" t="s">
+      <c r="H12" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="133"/>
-      <c r="H12" s="15" t="s">
+      <c r="I12" s="148"/>
+      <c r="J12" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="K12" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="77"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75">
-      <c r="A13" s="81"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="7" t="s">
+      <c r="L12" s="72"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75">
+      <c r="A13" s="76"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="102" t="s">
+      <c r="H13" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="103"/>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="122"/>
+      <c r="J13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="77"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75">
-      <c r="A14" s="81"/>
-      <c r="B14" s="27" t="s">
+      <c r="L13" s="72"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75">
+      <c r="A14" s="76"/>
+      <c r="B14" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="101"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="87" t="s">
+      <c r="G14" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="98" t="s">
+      <c r="H14" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="99"/>
-      <c r="H14" s="88" t="s">
+      <c r="I14" s="133"/>
+      <c r="J14" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="53" t="s">
+      <c r="K14" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="77"/>
-    </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1">
-      <c r="A15" s="52"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="77"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1">
-      <c r="A16" s="52"/>
-      <c r="B16" s="14"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="77"/>
-    </row>
-    <row r="17" spans="1:10" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="52"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="28" t="s">
+      <c r="L14" s="72"/>
+    </row>
+    <row r="15" spans="1:12" ht="18" customHeight="1">
+      <c r="A15" s="47"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="72"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="A16" s="47"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="72"/>
+    </row>
+    <row r="17" spans="1:12" s="25" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="47"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="78"/>
-    </row>
-    <row r="18" spans="1:10" s="28" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A18" s="52"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="78"/>
-    </row>
-    <row r="19" spans="1:10" s="28" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A19" s="52"/>
-      <c r="B19" s="110" t="s">
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="73"/>
+    </row>
+    <row r="18" spans="1:12" s="25" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A18" s="47"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="73"/>
+    </row>
+    <row r="19" spans="1:12" s="25" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A19" s="47"/>
+      <c r="B19" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="53" t="s">
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="G19" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="78"/>
-    </row>
-    <row r="20" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A20" s="52"/>
-      <c r="J20" s="77"/>
-    </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1">
-      <c r="A21" s="52"/>
-      <c r="B21" s="130" t="s">
+      <c r="H19" s="53"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="73"/>
+    </row>
+    <row r="20" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A20" s="47"/>
+      <c r="L20" s="72"/>
+    </row>
+    <row r="21" spans="1:12" ht="18" customHeight="1">
+      <c r="A21" s="47"/>
+      <c r="B21" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="130" t="s">
+      <c r="C21" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="111" t="s">
+      <c r="D21" s="113"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="G21" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="77"/>
-    </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1">
-      <c r="A22" s="52"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="111" t="s">
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="72"/>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1">
+      <c r="A22" s="47"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="104" t="s">
+      <c r="H22" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="105"/>
-      <c r="H22" s="111" t="s">
+      <c r="I22" s="145"/>
+      <c r="J22" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="111" t="s">
+      <c r="K22" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="J22" s="77"/>
-    </row>
-    <row r="23" spans="1:10" ht="15">
-      <c r="A23" s="52"/>
-      <c r="B23" s="130"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="77"/>
-    </row>
-    <row r="24" spans="1:10" ht="15">
-      <c r="A24" s="52"/>
-      <c r="B24" s="130"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="77"/>
-    </row>
-    <row r="25" spans="1:10" ht="15">
-      <c r="A25" s="52"/>
-      <c r="B25" s="130"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="77"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A26" s="52"/>
-      <c r="B26" s="130"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="7" t="s">
+      <c r="L22" s="72"/>
+    </row>
+    <row r="23" spans="1:12" ht="15">
+      <c r="A23" s="47"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="72"/>
+    </row>
+    <row r="24" spans="1:12" ht="15">
+      <c r="A24" s="47"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="72"/>
+    </row>
+    <row r="25" spans="1:12" ht="15">
+      <c r="A25" s="47"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="72"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A26" s="47"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="102" t="s">
+      <c r="H26" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="G26" s="103"/>
-      <c r="H26" s="5" t="s">
+      <c r="I26" s="122"/>
+      <c r="J26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="K26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="77"/>
-    </row>
-    <row r="27" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A27" s="52"/>
-      <c r="B27" s="27" t="s">
+      <c r="L26" s="72"/>
+    </row>
+    <row r="27" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A27" s="47"/>
+      <c r="B27" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="101"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="87" t="s">
+      <c r="G27" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="98" t="s">
+      <c r="H27" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="99"/>
-      <c r="H27" s="88" t="s">
+      <c r="I27" s="133"/>
+      <c r="J27" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="I27" s="53" t="s">
+      <c r="K27" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="J27" s="77"/>
-    </row>
-    <row r="28" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A28" s="52"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="77"/>
-    </row>
-    <row r="29" spans="1:10" ht="18" customHeight="1">
-      <c r="A29" s="52"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="77"/>
-    </row>
-    <row r="30" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A30" s="52"/>
-      <c r="B30" s="46" t="s">
+      <c r="L27" s="72"/>
+    </row>
+    <row r="28" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A28" s="47"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="135"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="72"/>
+    </row>
+    <row r="29" spans="1:12" ht="18" customHeight="1">
+      <c r="A29" s="47"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="72"/>
+    </row>
+    <row r="30" spans="1:12" ht="25.5" customHeight="1">
+      <c r="A30" s="47"/>
+      <c r="B30" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="131"/>
+      <c r="D30" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="77"/>
-    </row>
-    <row r="31" spans="1:10" ht="15">
-      <c r="A31" s="52"/>
-      <c r="J31" s="77"/>
-    </row>
-    <row r="32" spans="1:10" ht="15">
-      <c r="A32" s="52"/>
-      <c r="B32" s="24" t="s">
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="129"/>
+      <c r="L30" s="72"/>
+    </row>
+    <row r="31" spans="1:12" ht="15">
+      <c r="A31" s="47"/>
+      <c r="L31" s="72"/>
+    </row>
+    <row r="32" spans="1:12" ht="15">
+      <c r="A32" s="47"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="77"/>
-    </row>
-    <row r="33" spans="1:10" ht="15">
-      <c r="A33" s="52"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="129"/>
+      <c r="L32" s="72"/>
+    </row>
+    <row r="33" spans="1:12" ht="15">
+      <c r="A33" s="47"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="77"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75">
-      <c r="A34" s="52"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="72"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75">
+      <c r="A34" s="47"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="130"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="51" t="s">
+      <c r="G34" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="58"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="77"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75">
-      <c r="A35" s="52"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="72"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75">
+      <c r="A35" s="47"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="51" t="s">
+      <c r="G35" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="58"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="77"/>
-    </row>
-    <row r="36" spans="1:10" ht="18" customHeight="1">
-      <c r="A36" s="52"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="72"/>
+    </row>
+    <row r="36" spans="1:12" ht="18" customHeight="1">
+      <c r="A36" s="47"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="52" t="s">
+      <c r="G36" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="59"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="77"/>
-    </row>
-    <row r="37" spans="1:10" ht="18" customHeight="1">
-      <c r="A37" s="52"/>
-      <c r="J37" s="77"/>
-    </row>
-    <row r="38" spans="1:10" ht="18" customHeight="1">
-      <c r="A38" s="52"/>
-      <c r="B38" s="130" t="s">
+      <c r="H36" s="54"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="72"/>
+    </row>
+    <row r="37" spans="1:12" ht="18" customHeight="1">
+      <c r="A37" s="47"/>
+      <c r="L37" s="72"/>
+    </row>
+    <row r="38" spans="1:12" ht="18" customHeight="1">
+      <c r="A38" s="47"/>
+      <c r="B38" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="130" t="s">
+      <c r="C38" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="105" t="s">
+      <c r="D38" s="113"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="G38" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="77"/>
-    </row>
-    <row r="39" spans="1:10" ht="18" customHeight="1">
-      <c r="A39" s="52"/>
-      <c r="B39" s="130"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="110" t="s">
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="72"/>
+    </row>
+    <row r="39" spans="1:12" ht="18" customHeight="1">
+      <c r="A39" s="47"/>
+      <c r="B39" s="144"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="104" t="s">
+      <c r="H39" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="G39" s="105"/>
-      <c r="H39" s="110" t="s">
+      <c r="I39" s="145"/>
+      <c r="J39" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="I39" s="110" t="s">
+      <c r="K39" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="J39" s="77"/>
-    </row>
-    <row r="40" spans="1:10" ht="18" customHeight="1">
-      <c r="A40" s="52"/>
-      <c r="B40" s="130"/>
-      <c r="C40" s="130"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="77"/>
-    </row>
-    <row r="41" spans="1:10" ht="18" customHeight="1">
-      <c r="A41" s="52"/>
-      <c r="B41" s="130"/>
-      <c r="C41" s="130"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="110"/>
-      <c r="I41" s="110"/>
-      <c r="J41" s="77"/>
-    </row>
-    <row r="42" spans="1:10" ht="15">
-      <c r="A42" s="52"/>
-      <c r="B42" s="130"/>
-      <c r="C42" s="130"/>
-      <c r="D42" s="109"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="108"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="77"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A43" s="52"/>
-      <c r="B43" s="130"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="7" t="s">
+      <c r="L39" s="72"/>
+    </row>
+    <row r="40" spans="1:12" ht="18" customHeight="1">
+      <c r="A40" s="47"/>
+      <c r="B40" s="144"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="123"/>
+      <c r="H40" s="156"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="123"/>
+      <c r="K40" s="123"/>
+      <c r="L40" s="72"/>
+    </row>
+    <row r="41" spans="1:12" ht="18" customHeight="1">
+      <c r="A41" s="47"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="157"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="156"/>
+      <c r="I41" s="157"/>
+      <c r="J41" s="123"/>
+      <c r="K41" s="123"/>
+      <c r="L41" s="72"/>
+    </row>
+    <row r="42" spans="1:12" ht="15">
+      <c r="A42" s="47"/>
+      <c r="B42" s="144"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="123"/>
+      <c r="H42" s="158"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="123"/>
+      <c r="K42" s="123"/>
+      <c r="L42" s="72"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A43" s="47"/>
+      <c r="B43" s="144"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="G43" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="102" t="s">
+      <c r="H43" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="103"/>
-      <c r="H43" s="5" t="s">
+      <c r="I43" s="122"/>
+      <c r="J43" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="K43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J43" s="77"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A44" s="52"/>
-      <c r="B44" s="68" t="s">
+      <c r="L43" s="72"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A44" s="47"/>
+      <c r="B44" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="55" t="s">
+      <c r="D44" s="101"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="90" t="s">
+      <c r="G44" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="F44" s="145" t="s">
+      <c r="H44" s="166" t="s">
         <v>59</v>
       </c>
-      <c r="G44" s="146"/>
-      <c r="H44" s="91" t="s">
+      <c r="I44" s="167"/>
+      <c r="J44" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="I44" s="89" t="s">
+      <c r="K44" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="J44" s="77"/>
-    </row>
-    <row r="45" spans="1:10" ht="15">
-      <c r="A45" s="52"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="147"/>
-      <c r="G45" s="148"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="77"/>
-    </row>
-    <row r="46" spans="1:10" ht="15">
-      <c r="A46" s="52"/>
+      <c r="L44" s="72"/>
+    </row>
+    <row r="45" spans="1:12" ht="15">
+      <c r="A45" s="47"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="168"/>
+      <c r="I45" s="169"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="72"/>
+    </row>
+    <row r="46" spans="1:12" ht="15">
+      <c r="A46" s="47"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="144"/>
-      <c r="D46" s="144"/>
-      <c r="E46" s="144"/>
-      <c r="F46" s="144"/>
-      <c r="G46" s="144"/>
-      <c r="H46" s="144"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="77"/>
-    </row>
-    <row r="47" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A47" s="52"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="116" t="s">
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="165"/>
+      <c r="F46" s="165"/>
+      <c r="G46" s="165"/>
+      <c r="H46" s="165"/>
+      <c r="I46" s="165"/>
+      <c r="J46" s="165"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="72"/>
+    </row>
+    <row r="47" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A47" s="47"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="116"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="67" t="s">
+      <c r="H47" s="136"/>
+      <c r="I47" s="136"/>
+      <c r="J47" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="I47" s="52" t="s">
+      <c r="K47" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="J47" s="79"/>
-    </row>
-    <row r="48" spans="1:10" ht="18" customHeight="1">
-      <c r="A48" s="52"/>
-      <c r="E48" s="116" t="s">
+      <c r="L47" s="74"/>
+    </row>
+    <row r="48" spans="1:12" ht="18" customHeight="1">
+      <c r="A48" s="47"/>
+      <c r="G48" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="116"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="65" t="s">
+      <c r="H48" s="136"/>
+      <c r="I48" s="136"/>
+      <c r="J48" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="I48" s="66" t="s">
+      <c r="K48" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="J48" s="77"/>
-    </row>
-    <row r="49" spans="1:10" ht="15">
-      <c r="A49" s="52"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="11"/>
-      <c r="J49" s="77"/>
-    </row>
-    <row r="50" spans="1:10" ht="15">
-      <c r="A50" s="52"/>
-      <c r="E50" s="149" t="s">
+      <c r="L48" s="72"/>
+    </row>
+    <row r="49" spans="1:12" ht="15">
+      <c r="A49" s="47"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="11"/>
+      <c r="L49" s="72"/>
+    </row>
+    <row r="50" spans="1:12" ht="15">
+      <c r="A50" s="47"/>
+      <c r="G50" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="149"/>
-      <c r="G50" s="149"/>
-      <c r="H50" s="54" t="s">
+      <c r="H50" s="97"/>
+      <c r="I50" s="97"/>
+      <c r="J50" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="K50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J50" s="77"/>
-    </row>
-    <row r="51" spans="1:10" ht="15">
-      <c r="A51" s="52"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="11"/>
-      <c r="J51" s="77"/>
-    </row>
-    <row r="52" spans="1:10" ht="15">
-      <c r="A52" s="52"/>
+      <c r="L50" s="72"/>
+    </row>
+    <row r="51" spans="1:12" ht="15">
+      <c r="A51" s="47"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="11"/>
+      <c r="L51" s="72"/>
+    </row>
+    <row r="52" spans="1:12" ht="15">
+      <c r="A52" s="47"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="J52" s="77"/>
-    </row>
-    <row r="53" spans="1:10" ht="15">
-      <c r="A53" s="52"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="11"/>
-      <c r="J53" s="77"/>
-    </row>
-    <row r="54" spans="1:10" ht="15">
-      <c r="A54" s="52"/>
-      <c r="B54" s="141" t="s">
+      <c r="F52" s="8"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="L52" s="72"/>
+    </row>
+    <row r="53" spans="1:12" ht="15">
+      <c r="A53" s="47"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="11"/>
+      <c r="L53" s="72"/>
+    </row>
+    <row r="54" spans="1:12" ht="15">
+      <c r="A54" s="47"/>
+      <c r="B54" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="141" t="s">
+      <c r="C54" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="138" t="s">
+      <c r="D54" s="104"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="139"/>
-      <c r="F54" s="139"/>
-      <c r="G54" s="139"/>
-      <c r="H54" s="140"/>
-      <c r="J54" s="77"/>
-    </row>
-    <row r="55" spans="1:10" ht="15" customHeight="1">
-      <c r="A55" s="52"/>
-      <c r="B55" s="142"/>
-      <c r="C55" s="142"/>
-      <c r="D55" s="117" t="s">
+      <c r="G54" s="160"/>
+      <c r="H54" s="160"/>
+      <c r="I54" s="160"/>
+      <c r="J54" s="161"/>
+      <c r="L54" s="72"/>
+    </row>
+    <row r="55" spans="1:12" ht="15" customHeight="1">
+      <c r="A55" s="47"/>
+      <c r="B55" s="163"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="107"/>
+      <c r="E55" s="108"/>
+      <c r="F55" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="117" t="s">
+      <c r="G55" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="120" t="s">
+      <c r="H55" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="G55" s="121"/>
-      <c r="H55" s="117" t="s">
+      <c r="I55" s="141"/>
+      <c r="J55" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="77"/>
-    </row>
-    <row r="56" spans="1:10" ht="15" customHeight="1">
-      <c r="A56" s="52"/>
-      <c r="B56" s="142"/>
-      <c r="C56" s="142"/>
-      <c r="D56" s="118"/>
-      <c r="E56" s="118"/>
-      <c r="F56" s="122"/>
-      <c r="G56" s="123"/>
-      <c r="H56" s="118"/>
-      <c r="J56" s="77"/>
-    </row>
-    <row r="57" spans="1:10" ht="15" customHeight="1">
-      <c r="A57" s="52"/>
-      <c r="B57" s="142"/>
-      <c r="C57" s="142"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="118"/>
-      <c r="F57" s="122"/>
-      <c r="G57" s="123"/>
-      <c r="H57" s="118"/>
-      <c r="J57" s="77"/>
-    </row>
-    <row r="58" spans="1:10" ht="15" customHeight="1">
-      <c r="A58" s="52"/>
-      <c r="B58" s="142"/>
-      <c r="C58" s="142"/>
-      <c r="D58" s="119"/>
-      <c r="E58" s="119"/>
-      <c r="F58" s="122"/>
-      <c r="G58" s="123"/>
-      <c r="H58" s="119"/>
-      <c r="J58" s="77"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A59" s="52"/>
-      <c r="B59" s="143"/>
-      <c r="C59" s="143"/>
-      <c r="D59" s="5" t="s">
+      <c r="L55" s="72"/>
+    </row>
+    <row r="56" spans="1:12" ht="15" customHeight="1">
+      <c r="A56" s="47"/>
+      <c r="B56" s="163"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="108"/>
+      <c r="F56" s="138"/>
+      <c r="G56" s="138"/>
+      <c r="H56" s="142"/>
+      <c r="I56" s="143"/>
+      <c r="J56" s="138"/>
+      <c r="L56" s="72"/>
+    </row>
+    <row r="57" spans="1:12" ht="15" customHeight="1">
+      <c r="A57" s="47"/>
+      <c r="B57" s="163"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="107"/>
+      <c r="E57" s="108"/>
+      <c r="F57" s="138"/>
+      <c r="G57" s="138"/>
+      <c r="H57" s="142"/>
+      <c r="I57" s="143"/>
+      <c r="J57" s="138"/>
+      <c r="L57" s="72"/>
+    </row>
+    <row r="58" spans="1:12" ht="15" customHeight="1">
+      <c r="A58" s="47"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="106"/>
+      <c r="D58" s="107"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="139"/>
+      <c r="G58" s="139"/>
+      <c r="H58" s="142"/>
+      <c r="I58" s="143"/>
+      <c r="J58" s="139"/>
+      <c r="L58" s="72"/>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A59" s="47"/>
+      <c r="B59" s="164"/>
+      <c r="C59" s="109"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="111"/>
+      <c r="F59" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="G59" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="102" t="s">
+      <c r="H59" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="103"/>
-      <c r="H59" s="5" t="s">
+      <c r="I59" s="122"/>
+      <c r="J59" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J59" s="77"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A60" s="52"/>
-      <c r="B60" s="68">
+      <c r="L59" s="72"/>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A60" s="47"/>
+      <c r="B60" s="63">
         <v>1</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="D60" s="55" t="s">
+      <c r="D60" s="101"/>
+      <c r="E60" s="102"/>
+      <c r="F60" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="E60" s="56" t="s">
+      <c r="G60" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="F60" s="98" t="s">
+      <c r="H60" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="G60" s="99"/>
-      <c r="H60" s="55" t="s">
+      <c r="I60" s="133"/>
+      <c r="J60" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="J60" s="77"/>
-    </row>
-    <row r="61" spans="1:10" ht="15">
-      <c r="A61" s="52"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="45"/>
-      <c r="J61" s="77"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A62" s="52"/>
+      <c r="L60" s="72"/>
+    </row>
+    <row r="61" spans="1:12" ht="15">
+      <c r="A61" s="47"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="42"/>
+      <c r="L61" s="72"/>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A62" s="47"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="43" t="s">
+      <c r="D62" s="97"/>
+      <c r="E62" s="97"/>
+      <c r="F62" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="E62" s="72" t="s">
+      <c r="G62" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="11"/>
-      <c r="J62" s="77"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A63" s="82"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="11"/>
+      <c r="L62" s="72"/>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A63" s="77"/>
       <c r="B63" s="8"/>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="43" t="s">
+      <c r="D63" s="98"/>
+      <c r="E63" s="98"/>
+      <c r="F63" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="E63" s="73" t="s">
+      <c r="G63" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="11"/>
-      <c r="J63" s="77"/>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A64" s="52"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="11"/>
+      <c r="L63" s="72"/>
+    </row>
+    <row r="64" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A64" s="47"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="43" t="s">
+      <c r="D64" s="97"/>
+      <c r="E64" s="97"/>
+      <c r="F64" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="E64" s="72" t="s">
+      <c r="G64" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="11"/>
-      <c r="J64" s="77"/>
-    </row>
-    <row r="65" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A65" s="52"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="11"/>
+      <c r="L64" s="72"/>
+    </row>
+    <row r="65" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A65" s="47"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="43" t="s">
+      <c r="D65" s="97"/>
+      <c r="E65" s="97"/>
+      <c r="F65" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="E65" s="72" t="s">
+      <c r="G65" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="11"/>
-      <c r="J65" s="77"/>
-    </row>
-    <row r="66" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A66" s="52"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="11"/>
+      <c r="L65" s="72"/>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A66" s="47"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="43" t="s">
+      <c r="D66" s="97"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="E66" s="72" t="s">
+      <c r="G66" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="F66" s="3"/>
-      <c r="J66" s="77"/>
-    </row>
-    <row r="67" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A67" s="52"/>
+      <c r="H66" s="3"/>
+      <c r="L66" s="72"/>
+    </row>
+    <row r="67" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A67" s="47"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="3"/>
-      <c r="J67" s="77"/>
-    </row>
-    <row r="68" spans="1:10" ht="15" customHeight="1">
-      <c r="A68" s="52"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="3"/>
+      <c r="L67" s="72"/>
+    </row>
+    <row r="68" spans="1:12" ht="15" customHeight="1">
+      <c r="A68" s="47"/>
       <c r="B68" s="8"/>
-      <c r="C68" s="134" t="s">
+      <c r="C68" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="135" t="s">
+      <c r="D68" s="99"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="E68" s="136" t="s">
+      <c r="G68" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
+      <c r="H68" s="4"/>
       <c r="I68" s="8"/>
-      <c r="J68" s="77"/>
-    </row>
-    <row r="69" spans="1:10" ht="15" customHeight="1">
-      <c r="A69" s="52"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="72"/>
+    </row>
+    <row r="69" spans="1:12" ht="15" customHeight="1">
+      <c r="A69" s="47"/>
       <c r="B69" s="8"/>
-      <c r="C69" s="134"/>
-      <c r="D69" s="135"/>
-      <c r="E69" s="136"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="94"/>
+      <c r="G69" s="95"/>
+      <c r="H69" s="4"/>
       <c r="I69" s="8"/>
-      <c r="J69" s="77"/>
-    </row>
-    <row r="70" spans="1:10" ht="15.75">
-      <c r="A70" s="52"/>
-      <c r="B70" s="74"/>
-      <c r="C70" s="74" t="s">
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="72"/>
+    </row>
+    <row r="70" spans="1:12" ht="15.75">
+      <c r="A70" s="47"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="D70" s="60" t="s">
+      <c r="F70" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="E70" s="74" t="s">
+      <c r="G70" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
+      <c r="H70" s="2"/>
       <c r="I70" s="8"/>
-      <c r="J70" s="77"/>
-    </row>
-    <row r="71" spans="1:10" ht="15.75">
-      <c r="A71" s="52"/>
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="72"/>
+    </row>
+    <row r="71" spans="1:12" ht="15.75">
+      <c r="A71" s="47"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
       <c r="D71" s="44"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
       <c r="I71" s="8"/>
-      <c r="J71" s="77"/>
-    </row>
-    <row r="72" spans="1:10" ht="15.75">
-      <c r="A72" s="52"/>
-      <c r="B72" s="93"/>
-      <c r="C72" s="93"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="72"/>
+    </row>
+    <row r="72" spans="1:12" ht="15.75">
+      <c r="A72" s="47"/>
+      <c r="B72" s="88"/>
+      <c r="C72" s="88"/>
+      <c r="D72" s="88"/>
+      <c r="E72" s="88"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
       <c r="I72" s="8"/>
-      <c r="J72" s="77"/>
-    </row>
-    <row r="73" spans="1:10" ht="15.75">
-      <c r="A73" s="52"/>
-      <c r="B73" s="93"/>
-      <c r="C73" s="93"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="72"/>
+    </row>
+    <row r="73" spans="1:12" ht="15.75">
+      <c r="A73" s="47"/>
+      <c r="B73" s="88"/>
+      <c r="C73" s="88"/>
+      <c r="D73" s="88"/>
+      <c r="E73" s="88"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
       <c r="I73" s="8"/>
-      <c r="J73" s="77"/>
-    </row>
-    <row r="74" spans="1:10" ht="15.75">
-      <c r="A74" s="52"/>
-      <c r="B74" s="93"/>
-      <c r="C74" s="93"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="72"/>
+    </row>
+    <row r="74" spans="1:12" ht="15.75">
+      <c r="A74" s="47"/>
+      <c r="B74" s="88"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="88"/>
+      <c r="E74" s="88"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
       <c r="I74" s="8"/>
-      <c r="J74" s="77"/>
-    </row>
-    <row r="75" spans="1:10" ht="15.75">
-      <c r="A75" s="52"/>
-      <c r="B75" s="93"/>
-      <c r="C75" s="93"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="72"/>
+    </row>
+    <row r="75" spans="1:12" ht="15.75">
+      <c r="A75" s="47"/>
+      <c r="B75" s="88"/>
+      <c r="C75" s="88"/>
+      <c r="D75" s="88"/>
+      <c r="E75" s="88"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
       <c r="I75" s="8"/>
-      <c r="J75" s="77"/>
-    </row>
-    <row r="76" spans="1:10" ht="15.75">
-      <c r="A76" s="52"/>
-      <c r="B76" s="93"/>
-      <c r="C76" s="93"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="69"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="72"/>
+    </row>
+    <row r="76" spans="1:12" ht="15.75">
+      <c r="A76" s="47"/>
+      <c r="B76" s="88"/>
+      <c r="C76" s="88"/>
+      <c r="D76" s="88"/>
+      <c r="E76" s="88"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="64"/>
       <c r="I76" s="8"/>
-      <c r="J76" s="77"/>
-    </row>
-    <row r="77" spans="1:10" ht="18" customHeight="1">
-      <c r="A77" s="52"/>
-      <c r="B77" s="94"/>
-      <c r="C77" s="95" t="s">
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="72"/>
+    </row>
+    <row r="77" spans="1:12" ht="18" customHeight="1">
+      <c r="A77" s="47"/>
+      <c r="B77" s="89"/>
+      <c r="C77" s="96" t="s">
         <v>93</v>
       </c>
       <c r="D77" s="96"/>
-      <c r="E77" s="137" t="s">
+      <c r="E77" s="96"/>
+      <c r="F77" s="90"/>
+      <c r="G77" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="F77" s="137"/>
-      <c r="G77" s="97"/>
-      <c r="H77" s="137" t="s">
+      <c r="H77" s="96"/>
+      <c r="I77" s="91"/>
+      <c r="J77" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="I77" s="137"/>
-      <c r="J77" s="77"/>
-    </row>
-    <row r="78" spans="1:10" ht="18" customHeight="1">
-      <c r="A78" s="52"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
+      <c r="K77" s="96"/>
+      <c r="L77" s="72"/>
+    </row>
+    <row r="78" spans="1:12" ht="18" customHeight="1">
+      <c r="A78" s="47"/>
       <c r="I78" s="8"/>
-      <c r="J78" s="77"/>
-    </row>
-    <row r="79" spans="1:10" ht="18" customHeight="1">
-      <c r="A79" s="52"/>
-      <c r="J79" s="77"/>
-    </row>
-    <row r="80" spans="1:10" ht="18" customHeight="1">
-      <c r="A80" s="83"/>
-      <c r="B80" s="75"/>
-      <c r="C80" s="75"/>
-      <c r="D80" s="75"/>
-      <c r="E80" s="75"/>
-      <c r="F80" s="75"/>
-      <c r="G80" s="75"/>
-      <c r="H80" s="75"/>
-      <c r="I80" s="75"/>
-      <c r="J80" s="77"/>
-    </row>
-    <row r="81" spans="1:10" ht="18" customHeight="1">
-      <c r="A81" s="59"/>
-      <c r="J81" s="77"/>
-    </row>
-    <row r="82" spans="1:10" ht="18" customHeight="1">
-      <c r="A82" s="59"/>
-      <c r="J82" s="77"/>
-    </row>
-    <row r="83" spans="1:10" ht="18" customHeight="1">
-      <c r="A83" s="59"/>
-      <c r="J83" s="77"/>
-    </row>
-    <row r="84" spans="1:10" ht="18" customHeight="1">
-      <c r="J84" s="77"/>
-    </row>
-    <row r="85" spans="1:10" ht="18" customHeight="1">
-      <c r="J85" s="77"/>
-    </row>
-    <row r="86" spans="1:10" ht="18" customHeight="1">
-      <c r="A86" s="59"/>
-      <c r="B86" s="84"/>
-      <c r="C86" s="84"/>
-      <c r="D86" s="84"/>
-      <c r="E86" s="84"/>
-      <c r="F86" s="84"/>
-      <c r="G86" s="84"/>
-      <c r="H86" s="84"/>
-      <c r="I86" s="84"/>
-      <c r="J86" s="77"/>
-    </row>
-    <row r="87" spans="1:10" ht="18" customHeight="1">
-      <c r="J87" s="77"/>
-    </row>
-    <row r="88" spans="1:10" ht="18" customHeight="1">
-      <c r="J88" s="77"/>
-    </row>
-    <row r="89" spans="1:10" ht="18" customHeight="1">
-      <c r="J89" s="77"/>
-    </row>
-    <row r="90" spans="1:10" ht="18" customHeight="1">
-      <c r="J90" s="77"/>
-    </row>
-    <row r="91" spans="1:10" ht="18" customHeight="1">
-      <c r="J91" s="77"/>
-    </row>
-    <row r="92" spans="1:10" ht="18" customHeight="1">
-      <c r="J92" s="85"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="72"/>
+    </row>
+    <row r="79" spans="1:12" ht="18" customHeight="1">
+      <c r="A79" s="47"/>
+      <c r="L79" s="72"/>
+    </row>
+    <row r="80" spans="1:12" ht="18" customHeight="1">
+      <c r="A80" s="78"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="70"/>
+      <c r="D80" s="70"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="70"/>
+      <c r="G80" s="70"/>
+      <c r="H80" s="70"/>
+      <c r="I80" s="70"/>
+      <c r="J80" s="70"/>
+      <c r="K80" s="70"/>
+      <c r="L80" s="72"/>
+    </row>
+    <row r="81" spans="1:12" ht="18" customHeight="1">
+      <c r="A81" s="54"/>
+      <c r="L81" s="72"/>
+    </row>
+    <row r="82" spans="1:12" ht="18" customHeight="1">
+      <c r="A82" s="54"/>
+      <c r="L82" s="72"/>
+    </row>
+    <row r="83" spans="1:12" ht="18" customHeight="1">
+      <c r="A83" s="54"/>
+      <c r="L83" s="72"/>
+    </row>
+    <row r="84" spans="1:12" ht="18" customHeight="1">
+      <c r="L84" s="72"/>
+    </row>
+    <row r="85" spans="1:12" ht="18" customHeight="1">
+      <c r="L85" s="72"/>
+    </row>
+    <row r="86" spans="1:12" ht="18" customHeight="1">
+      <c r="A86" s="54"/>
+      <c r="B86" s="79"/>
+      <c r="C86" s="79"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="79"/>
+      <c r="G86" s="79"/>
+      <c r="H86" s="79"/>
+      <c r="I86" s="79"/>
+      <c r="J86" s="79"/>
+      <c r="K86" s="79"/>
+      <c r="L86" s="72"/>
+    </row>
+    <row r="87" spans="1:12" ht="18" customHeight="1">
+      <c r="L87" s="72"/>
+    </row>
+    <row r="88" spans="1:12" ht="18" customHeight="1">
+      <c r="L88" s="72"/>
+    </row>
+    <row r="89" spans="1:12" ht="18" customHeight="1">
+      <c r="L89" s="72"/>
+    </row>
+    <row r="90" spans="1:12" ht="18" customHeight="1">
+      <c r="L90" s="72"/>
+    </row>
+    <row r="91" spans="1:12" ht="18" customHeight="1">
+      <c r="L91" s="72"/>
+    </row>
+    <row r="92" spans="1:12" ht="18" customHeight="1">
+      <c r="L92" s="80"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E77:F77"/>
+  <mergeCells count="70">
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="B38:B43"/>
-    <mergeCell ref="F39:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="H39:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="F54:J54"/>
     <mergeCell ref="B54:B59"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="F55:G58"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J55:J58"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="H55:I58"/>
     <mergeCell ref="A1:B3"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="G22:G25"/>
     <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C21:C26"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="C1:H3"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F22:G25"/>
-    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C1:J3"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H22:I25"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C11:E13"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C21:E26"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C54:E59"/>
+    <mergeCell ref="C38:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C68:E69"/>
+    <mergeCell ref="G77:H77"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="43" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="10" max="1048575" man="1"/>
+    <brk id="12" max="1048575" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
